--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit1-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit1-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Slit1</t>
+  </si>
+  <si>
+    <t>Robo2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Slit1</t>
-  </si>
-  <si>
-    <t>Robo2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.2055996666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.616799</v>
+      </c>
+      <c r="I2">
+        <v>0.9059768423248155</v>
+      </c>
+      <c r="J2">
+        <v>0.9059768423248156</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0.3766166666666667</v>
-      </c>
-      <c r="H2">
-        <v>1.12985</v>
-      </c>
-      <c r="I2">
-        <v>0.6239986391709988</v>
-      </c>
-      <c r="J2">
-        <v>0.6239986391709988</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.1588893333333333</v>
+        <v>2.892869333333334</v>
       </c>
       <c r="N2">
-        <v>0.476668</v>
+        <v>8.678608000000001</v>
       </c>
       <c r="O2">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656885</v>
       </c>
       <c r="P2">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656884</v>
       </c>
       <c r="Q2">
-        <v>0.05984037108888889</v>
+        <v>0.5947729706435555</v>
       </c>
       <c r="R2">
-        <v>0.5385633398</v>
+        <v>5.352956735792</v>
       </c>
       <c r="S2">
-        <v>0.3983369380630392</v>
+        <v>0.878637812944293</v>
       </c>
       <c r="T2">
-        <v>0.3983369380630392</v>
+        <v>0.878637812944293</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3766166666666667</v>
+        <v>0.2055996666666667</v>
       </c>
       <c r="H3">
-        <v>1.12985</v>
+        <v>0.616799</v>
       </c>
       <c r="I3">
-        <v>0.6239986391709988</v>
+        <v>0.9059768423248155</v>
       </c>
       <c r="J3">
-        <v>0.6239986391709988</v>
+        <v>0.9059768423248156</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.060942</v>
       </c>
       <c r="O3">
-        <v>0.08161455996678742</v>
+        <v>0.006810193051573731</v>
       </c>
       <c r="P3">
-        <v>0.08161455996678742</v>
+        <v>0.00681019305157373</v>
       </c>
       <c r="Q3">
-        <v>0.007650590966666666</v>
+        <v>0.004176551628666667</v>
       </c>
       <c r="R3">
-        <v>0.0688553187</v>
+        <v>0.037588964658</v>
       </c>
       <c r="S3">
-        <v>0.05092737435581523</v>
+        <v>0.006169877196487168</v>
       </c>
       <c r="T3">
-        <v>0.05092737435581523</v>
+        <v>0.006169877196487168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3766166666666667</v>
+        <v>0.2055996666666667</v>
       </c>
       <c r="H4">
-        <v>1.12985</v>
+        <v>0.616799</v>
       </c>
       <c r="I4">
-        <v>0.6239986391709988</v>
+        <v>0.9059768423248155</v>
       </c>
       <c r="J4">
-        <v>0.6239986391709988</v>
+        <v>0.9059768423248156</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.209095</v>
       </c>
       <c r="O4">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273784</v>
       </c>
       <c r="P4">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273783</v>
       </c>
       <c r="Q4">
-        <v>0.02624955397222222</v>
+        <v>0.01432995410055555</v>
       </c>
       <c r="R4">
-        <v>0.23624598575</v>
+        <v>0.128969586905</v>
       </c>
       <c r="S4">
-        <v>0.1747343267521445</v>
+        <v>0.02116915218403538</v>
       </c>
       <c r="T4">
-        <v>0.1747343267521445</v>
+        <v>0.02116915218403538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -720,46 +720,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2055996666666667</v>
+        <v>0.02133733333333333</v>
       </c>
       <c r="H5">
-        <v>0.616799</v>
+        <v>0.064012</v>
       </c>
       <c r="I5">
-        <v>0.340648525593692</v>
+        <v>0.09402315767518445</v>
       </c>
       <c r="J5">
-        <v>0.340648525593692</v>
+        <v>0.09402315767518446</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1588893333333333</v>
+        <v>2.892869333333334</v>
       </c>
       <c r="N5">
-        <v>0.476668</v>
+        <v>8.678608000000001</v>
       </c>
       <c r="O5">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656885</v>
       </c>
       <c r="P5">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656884</v>
       </c>
       <c r="Q5">
-        <v>0.03266759397022222</v>
+        <v>0.06172611725511112</v>
       </c>
       <c r="R5">
-        <v>0.294008345732</v>
+        <v>0.555535055296</v>
       </c>
       <c r="S5">
-        <v>0.2174570297476165</v>
+        <v>0.09118588662139544</v>
       </c>
       <c r="T5">
-        <v>0.2174570297476165</v>
+        <v>0.09118588662139544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2055996666666667</v>
+        <v>0.02133733333333333</v>
       </c>
       <c r="H6">
-        <v>0.616799</v>
+        <v>0.064012</v>
       </c>
       <c r="I6">
-        <v>0.340648525593692</v>
+        <v>0.09402315767518445</v>
       </c>
       <c r="J6">
-        <v>0.340648525593692</v>
+        <v>0.09402315767518446</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.060942</v>
       </c>
       <c r="O6">
-        <v>0.08161455996678742</v>
+        <v>0.006810193051573731</v>
       </c>
       <c r="P6">
-        <v>0.08161455996678742</v>
+        <v>0.00681019305157373</v>
       </c>
       <c r="Q6">
-        <v>0.004176551628666666</v>
+        <v>0.0004334465893333334</v>
       </c>
       <c r="R6">
-        <v>0.037588964658</v>
+        <v>0.003901019304</v>
       </c>
       <c r="S6">
-        <v>0.02780187951966409</v>
+        <v>0.0006403158550865623</v>
       </c>
       <c r="T6">
-        <v>0.02780187951966409</v>
+        <v>0.0006403158550865623</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2055996666666667</v>
+        <v>0.02133733333333333</v>
       </c>
       <c r="H7">
-        <v>0.616799</v>
+        <v>0.064012</v>
       </c>
       <c r="I7">
-        <v>0.340648525593692</v>
+        <v>0.09402315767518445</v>
       </c>
       <c r="J7">
-        <v>0.340648525593692</v>
+        <v>0.09402315767518446</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,208 +868,22 @@
         <v>0.209095</v>
       </c>
       <c r="O7">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273784</v>
       </c>
       <c r="P7">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273783</v>
       </c>
       <c r="Q7">
-        <v>0.01432995410055555</v>
+        <v>0.001487176571111111</v>
       </c>
       <c r="R7">
-        <v>0.128969586905</v>
+        <v>0.01338458914</v>
       </c>
       <c r="S7">
-        <v>0.09538961632641142</v>
+        <v>0.002196955198702451</v>
       </c>
       <c r="T7">
-        <v>0.09538961632641142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.02133733333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.064012</v>
-      </c>
-      <c r="I8">
-        <v>0.0353528352353091</v>
-      </c>
-      <c r="J8">
-        <v>0.03535283523530909</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.1588893333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.476668</v>
-      </c>
-      <c r="O8">
-        <v>0.6383618698147193</v>
-      </c>
-      <c r="P8">
-        <v>0.6383618698147193</v>
-      </c>
-      <c r="Q8">
-        <v>0.003390274668444444</v>
-      </c>
-      <c r="R8">
-        <v>0.030512472016</v>
-      </c>
-      <c r="S8">
-        <v>0.02256790200406361</v>
-      </c>
-      <c r="T8">
-        <v>0.0225679020040636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.02133733333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.064012</v>
-      </c>
-      <c r="I9">
-        <v>0.0353528352353091</v>
-      </c>
-      <c r="J9">
-        <v>0.03535283523530909</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.020314</v>
-      </c>
-      <c r="N9">
-        <v>0.060942</v>
-      </c>
-      <c r="O9">
-        <v>0.08161455996678742</v>
-      </c>
-      <c r="P9">
-        <v>0.08161455996678742</v>
-      </c>
-      <c r="Q9">
-        <v>0.0004334465893333333</v>
-      </c>
-      <c r="R9">
-        <v>0.003901019304</v>
-      </c>
-      <c r="S9">
-        <v>0.002885306091308089</v>
-      </c>
-      <c r="T9">
-        <v>0.002885306091308089</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.02133733333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.064012</v>
-      </c>
-      <c r="I10">
-        <v>0.0353528352353091</v>
-      </c>
-      <c r="J10">
-        <v>0.03535283523530909</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.06969833333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.209095</v>
-      </c>
-      <c r="O10">
-        <v>0.2800235702184933</v>
-      </c>
-      <c r="P10">
-        <v>0.2800235702184933</v>
-      </c>
-      <c r="Q10">
-        <v>0.001487176571111111</v>
-      </c>
-      <c r="R10">
-        <v>0.01338458914</v>
-      </c>
-      <c r="S10">
-        <v>0.009899627139937401</v>
-      </c>
-      <c r="T10">
-        <v>0.009899627139937398</v>
+        <v>0.002196955198702451</v>
       </c>
     </row>
   </sheetData>
